--- a/【Windows上SRUM監控工具】需求定義.xlsx
+++ b/【Windows上SRUM監控工具】需求定義.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CHEN\01_devolment\04_Python\20_srum_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB71C21F-47E9-48F8-A976-8D82E3479F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03097C6C-E3E6-409A-A005-EFC699A3BB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28785" yWindow="135" windowWidth="21600" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17955" yWindow="180" windowWidth="17910" windowHeight="12855" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_系統概要" sheetId="1" r:id="rId1"/>
     <sheet name="02_安裝流程" sheetId="4" r:id="rId2"/>
     <sheet name="03_運行流程" sheetId="2" r:id="rId3"/>
-    <sheet name="09_其他" sheetId="3" r:id="rId4"/>
+    <sheet name="04_流程紀錄" sheetId="5" r:id="rId4"/>
+    <sheet name="09_其他" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -4008,6 +4009,495 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>125018</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{187B0956-5822-AAE2-CCD8-BA78FC9A64DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="238125"/>
+          <a:ext cx="8545118" cy="4420217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>63107</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>143493</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73079BBC-68BB-E9AC-325B-A8EA05FD8ACA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="250031" y="5000625"/>
+          <a:ext cx="8564170" cy="4429743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>217037</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{108D41EC-9673-CD79-812F-4D9323E06958}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9251156" y="5000625"/>
+          <a:ext cx="2467319" cy="1838582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>148425</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>200186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1622890-AF74-D4A7-EDCD-EBA9555298EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="250031" y="10715625"/>
+          <a:ext cx="5649113" cy="1152686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>177004</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>219239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{944F68DD-0DA0-4ABD-93DD-911BFAA266DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="250031" y="9763125"/>
+          <a:ext cx="5677692" cy="1171739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>69310</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>219272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3334FD9D-B25C-4DE8-978E-8F6A56F2EEFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="250031" y="12620625"/>
+          <a:ext cx="1819529" cy="1409897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>155326</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>229031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D22CF180-1887-45D3-AB89-2AE75CBE73D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="250031" y="14525625"/>
+          <a:ext cx="3905795" cy="3086531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>63107</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>153020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B846551-961B-8FF1-FAD4-FB1990B3B3E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="250031" y="18097500"/>
+          <a:ext cx="8564170" cy="4439270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>53581</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>200651</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6338D335-E223-9E81-7EDC-D6E2A2A3224D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9001125" y="18097500"/>
+          <a:ext cx="8554644" cy="4486901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>167478</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>38271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A2FCC05-B376-A37A-1423-98C360E88BD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="250031" y="22860000"/>
+          <a:ext cx="5668166" cy="1228896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>57996</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>115014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C5E6541-1C2A-48D5-65CD-D4B7CE239D2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="250031" y="24526875"/>
+          <a:ext cx="6058746" cy="5115639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -50595,7 +51085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32898F4E-5257-4E3D-9165-DBD6DD3C8560}">
   <dimension ref="B1:E1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -52687,6 +53177,1026 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BF6C4C-2296-4F43-8661-59DC9CF285A0}">
+  <dimension ref="A1:A1002"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AG103" sqref="AG103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1"/>
+    <row r="2" ht="18.75" customHeight="1"/>
+    <row r="3" ht="18.75" customHeight="1"/>
+    <row r="4" ht="18.75" customHeight="1"/>
+    <row r="5" ht="18.75" customHeight="1"/>
+    <row r="6" ht="18.75" customHeight="1"/>
+    <row r="7" ht="18.75" customHeight="1"/>
+    <row r="8" ht="18.75" customHeight="1"/>
+    <row r="9" ht="18.75" customHeight="1"/>
+    <row r="10" ht="18.75" customHeight="1"/>
+    <row r="11" ht="18.75" customHeight="1"/>
+    <row r="12" ht="18.75" customHeight="1"/>
+    <row r="13" ht="18.75" customHeight="1"/>
+    <row r="14" ht="18.75" customHeight="1"/>
+    <row r="15" ht="18.75" customHeight="1"/>
+    <row r="16" ht="18.75" customHeight="1"/>
+    <row r="17" ht="18.75" customHeight="1"/>
+    <row r="18" ht="18.75" customHeight="1"/>
+    <row r="19" ht="18.75" customHeight="1"/>
+    <row r="20" ht="18.75" customHeight="1"/>
+    <row r="21" ht="18.75" customHeight="1"/>
+    <row r="22" ht="18.75" customHeight="1"/>
+    <row r="23" ht="18.75" customHeight="1"/>
+    <row r="24" ht="18.75" customHeight="1"/>
+    <row r="25" ht="18.75" customHeight="1"/>
+    <row r="26" ht="18.75" customHeight="1"/>
+    <row r="27" ht="18.75" customHeight="1"/>
+    <row r="28" ht="18.75" customHeight="1"/>
+    <row r="29" ht="18.75" customHeight="1"/>
+    <row r="30" ht="18.75" customHeight="1"/>
+    <row r="31" ht="18.75" customHeight="1"/>
+    <row r="32" ht="18.75" customHeight="1"/>
+    <row r="33" ht="18.75" customHeight="1"/>
+    <row r="34" ht="18.75" customHeight="1"/>
+    <row r="35" ht="18.75" customHeight="1"/>
+    <row r="36" ht="18.75" customHeight="1"/>
+    <row r="37" ht="18.75" customHeight="1"/>
+    <row r="38" ht="18.75" customHeight="1"/>
+    <row r="39" ht="18.75" customHeight="1"/>
+    <row r="40" ht="18.75" customHeight="1"/>
+    <row r="41" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="42" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="43" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="44" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="45" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="46" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="47" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="48" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="49" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="50" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="51" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="52" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="53" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="54" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="55" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="56" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="57" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="58" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="59" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="60" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="61" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="62" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="63" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="64" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="65" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="66" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="67" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="68" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="69" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="70" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="71" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="72" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="73" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="74" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="75" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="76" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="77" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="78" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="79" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="80" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="81" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="82" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="83" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="84" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="85" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="86" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="87" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="88" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="89" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="90" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="91" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="92" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="93" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="94" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="95" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="96" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="97" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="98" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="99" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="100" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="101" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="102" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="103" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="104" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="105" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="106" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="107" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="108" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="109" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="110" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="111" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="112" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="113" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="114" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="115" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="116" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="117" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="118" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="119" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="120" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="121" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="122" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="123" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="124" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="125" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="126" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="127" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="128" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="129" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="130" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="131" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="132" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="133" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="134" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="135" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="136" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="137" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="138" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="139" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="140" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="141" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="142" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="143" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="144" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="145" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="146" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="147" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="148" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="149" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="150" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="151" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="152" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="153" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="154" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="155" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="156" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="157" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="158" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="159" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="160" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="161" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="162" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="163" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="164" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="165" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="166" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="167" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="168" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="169" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="170" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="171" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="172" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="173" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="174" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="175" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="176" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="177" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="178" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="179" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="180" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="181" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="182" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="183" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="184" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="185" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="186" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="187" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="188" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="189" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="190" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="191" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="192" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="193" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="194" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="195" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="196" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="197" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="198" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="199" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="200" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="201" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="202" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="203" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="204" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="205" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="206" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="207" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="208" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="209" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="210" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="211" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="212" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="213" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="214" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="215" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="216" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="217" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="218" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="219" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="220" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="221" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="222" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="223" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="224" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="225" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="226" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="227" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="228" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="229" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="230" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="231" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="232" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="233" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="234" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="235" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="236" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="237" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="238" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="239" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="240" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="241" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="242" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="243" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="244" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="245" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="246" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="247" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="248" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="249" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="250" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="251" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="252" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="253" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="254" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="255" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="256" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="257" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="258" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="259" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="260" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="261" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="262" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="263" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="264" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="265" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="266" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="267" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="268" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="269" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="270" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="271" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="272" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="273" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="274" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="275" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="276" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="277" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="278" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="279" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="280" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="281" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="282" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="283" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="284" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="285" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="286" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="287" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="288" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="289" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="290" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="291" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="292" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="293" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="294" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="295" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="296" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="297" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="298" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="299" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="300" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="301" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="302" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="303" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="304" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="305" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="306" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="307" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="308" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="309" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="310" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="311" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="312" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="313" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="314" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="315" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="316" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="317" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="318" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="319" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="320" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="321" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="322" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="323" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="324" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="325" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="326" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="327" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="328" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="329" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="330" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="331" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="332" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="333" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="334" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="335" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="336" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="337" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="338" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="339" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="340" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="341" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="342" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="343" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="344" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="345" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="346" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="347" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="348" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="349" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="350" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="351" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="352" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="353" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="354" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="355" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="356" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="357" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="358" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="359" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="360" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="361" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="362" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="363" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="364" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="365" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="366" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="367" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="368" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="369" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="370" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="371" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="372" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="373" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="374" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="375" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="376" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="377" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="378" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="379" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="380" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="381" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="382" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="383" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="384" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="385" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="386" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="387" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="388" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="389" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="390" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="391" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="392" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="393" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="394" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="395" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="396" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="397" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="398" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="399" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="400" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="401" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="402" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="403" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="404" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="405" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="406" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="407" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="408" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="409" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="410" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="411" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="412" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="413" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="414" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="415" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="416" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="417" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="418" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="419" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="420" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="421" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="422" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="423" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="424" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="425" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="426" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="427" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="428" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="429" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="430" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="431" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="432" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="433" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="434" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="435" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="436" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="437" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="438" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="439" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="440" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="441" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="442" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="443" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="444" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="445" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="446" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="447" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="448" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="449" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="450" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="451" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="452" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="453" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="454" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="455" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="456" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="457" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="458" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="459" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="460" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="461" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="462" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="463" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="464" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="465" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="466" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="467" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="468" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="469" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="470" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="471" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="472" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="473" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="474" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="475" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="476" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="477" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="478" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="479" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="480" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="481" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="482" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="483" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="484" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="485" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="486" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="487" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="488" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="489" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="490" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="491" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="492" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="493" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="494" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="495" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="496" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="497" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="498" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="499" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="500" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="501" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="502" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="503" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="504" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="505" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="506" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="507" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="508" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="509" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="510" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="511" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="512" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="513" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="514" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="515" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="516" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="517" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="518" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="519" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="520" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="521" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="522" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="523" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="524" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="525" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="526" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="527" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="528" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="529" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="530" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="531" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="532" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="533" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="534" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="535" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="536" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="537" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="538" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="539" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="540" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="541" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="542" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="543" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="544" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="545" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="546" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="547" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="548" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="549" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="550" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="551" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="552" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="553" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="554" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="555" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="556" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="557" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="558" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="559" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="560" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="561" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="562" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="563" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="564" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="565" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="566" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="567" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="568" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="569" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="570" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="571" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="572" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="573" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="574" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="575" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="576" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="577" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="578" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="579" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="580" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="581" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="582" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="583" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="584" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="585" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="586" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="587" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="588" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="589" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="590" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="591" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="592" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="593" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="594" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="595" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="596" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="597" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="598" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="599" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="600" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="601" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="602" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="603" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="604" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="605" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="606" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="607" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="608" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="609" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="610" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="611" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="612" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="613" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="614" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="615" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="616" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="617" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="618" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="619" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="620" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="621" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="622" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="623" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="624" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="625" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="626" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="627" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="628" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="629" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="630" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="631" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="632" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="633" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="634" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="635" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="636" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="637" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="638" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="639" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="640" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="641" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="642" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="643" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="644" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="645" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="646" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="647" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="648" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="649" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="650" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="651" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="652" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="653" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="654" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="655" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="656" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="657" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="658" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="659" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="660" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="661" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="662" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="663" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="664" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="665" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="666" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="667" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="668" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="669" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="670" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="671" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="672" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="673" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="674" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="675" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="676" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="677" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="678" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="679" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="680" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="681" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="682" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="683" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="684" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="685" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="686" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="687" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="688" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="689" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="690" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="691" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="692" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="693" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="694" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="695" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="696" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="697" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="698" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="699" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="700" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="701" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="702" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="703" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="704" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="705" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="706" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="707" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="708" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="709" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="710" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="711" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="712" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="713" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="714" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="715" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="716" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="717" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="718" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="719" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="720" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="721" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="722" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="723" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="724" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="725" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="726" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="727" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="728" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="729" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="730" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="731" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="732" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="733" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="734" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="735" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="736" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="737" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="738" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="739" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="740" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="741" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="742" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="743" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="744" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="745" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="746" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="747" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="748" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="749" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="750" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="751" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="752" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="753" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="754" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="755" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="756" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="757" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="758" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="759" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="760" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="761" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="762" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="763" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="764" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="765" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="766" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="767" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="768" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="769" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="770" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="771" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="772" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="773" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="774" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="775" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="776" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="777" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="778" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="779" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="780" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="781" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="782" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="783" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="784" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="785" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="786" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="787" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="788" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="789" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="790" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="791" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="792" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="793" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="794" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="795" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="796" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="797" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="798" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="799" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="800" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="801" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="802" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="803" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="804" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="805" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="806" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="807" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="808" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="809" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="810" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="811" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="812" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="813" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="814" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="815" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="816" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="817" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="818" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="819" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="820" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="821" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="822" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="823" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="824" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="825" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="826" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="827" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="828" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="829" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="830" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="831" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="832" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="833" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="834" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="835" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="836" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="837" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="838" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="839" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="840" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="841" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="842" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="843" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="844" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="845" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="846" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="847" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="848" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="849" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="850" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="851" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="852" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="853" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="854" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="855" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="856" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="857" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="858" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="859" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="860" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="861" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="862" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="863" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="864" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="865" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="866" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="867" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="868" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="869" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="870" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="871" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="872" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="873" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="874" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="875" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="876" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="877" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="878" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="879" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="880" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="881" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="882" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="883" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="884" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="885" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="886" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="887" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="888" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="889" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="890" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="891" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="892" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="893" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="894" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="895" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="896" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="897" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="898" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="899" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="900" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="901" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="902" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="903" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="904" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="905" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="906" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="907" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="908" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="909" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="910" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="911" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="912" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="913" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="914" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="915" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="916" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="917" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="918" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="919" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="920" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="921" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="922" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="923" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="924" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="925" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="926" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="927" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="928" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="929" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="930" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="931" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="932" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="933" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="934" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="935" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="936" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="937" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="938" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="939" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="940" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="941" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="942" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="943" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="944" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="945" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="946" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="947" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="948" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="949" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="950" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="951" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="952" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="953" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="954" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="955" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="956" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="957" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="958" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="959" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="960" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="961" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="962" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="963" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="964" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="965" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="966" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="967" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="968" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="969" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="970" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="971" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="972" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="973" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="974" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="975" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="976" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="977" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="978" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="979" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="980" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="981" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="982" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="983" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="984" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="985" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="986" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="987" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="988" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="989" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="990" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="991" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="992" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="993" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="994" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="995" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="996" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="997" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="998" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="999" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="1000" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="1001" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="1002" customFormat="1" ht="18.75" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
